--- a/biology/Zoologie/Forbestra_equicola/Forbestra_equicola.xlsx
+++ b/biology/Zoologie/Forbestra_equicola/Forbestra_equicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Forbestra equicola est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Forbestra.
 </t>
@@ -511,15 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Forbestra equicola a été décrit par Pieter Cramer en 1780 sous le nom initial de Papilio equicola[1].
-Noms vernaculaires
-Forbestra equicola se nomme Equicola Tigerwing en anglais[2].
-Sous-espèces
-Forbestra equicola equicola; présent au Surinam et en Guyane.
-Forbestra equicola equicoloides (Godman &amp; Salvin, 1898); présent en Équateur, au Brésil et au Pérou.
-Forbestra equicola ssp; présent au Brésil[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forbestra equicola a été décrit par Pieter Cramer en 1780 sous le nom initial de Papilio equicola.
+</t>
         </is>
       </c>
     </row>
@@ -544,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forbestra equicola est un papillon d'une envergure de 70 mm à 75 mm, aux ailes à apex arrondi avec les ailes antérieures bien plus longues que les ailes postérieures[3]. Les ailes sont de couleur ocre et ornées de taches marron, alternant avec des taches jaune sur une zone allant de l'apex au milieu du bord costal aux ailes antérieures et aux ailes postérieures de taches marginales marron et d'une ligne de marques marron qui est parallèle à cette marge.
-Le revers est semblable.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forbestra equicola se nomme Equicola Tigerwing en anglais.
 </t>
         </is>
       </c>
@@ -576,14 +590,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôte de sa chenille sont des Cyphomandra[1].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Forbestra equicola equicola; présent au Surinam et en Guyane.
+Forbestra equicola equicoloides (Godman &amp; Salvin, 1898); présent en Équateur, au Brésil et au Pérou.
+Forbestra equicola ssp; présent au Brésil.</t>
         </is>
       </c>
     </row>
@@ -608,15 +628,122 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forbestra equicola est un papillon d'une envergure de 70 mm à 75 mm, aux ailes à apex arrondi avec les ailes antérieures bien plus longues que les ailes postérieures. Les ailes sont de couleur ocre et ornées de taches marron, alternant avec des taches jaune sur une zone allant de l'apex au milieu du bord costal aux ailes antérieures et aux ailes postérieures de taches marginales marron et d'une ligne de marques marron qui est parallèle à cette marge.
+Le revers est semblable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forbestra_equicola</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forbestra_equicola</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôte de sa chenille sont des Cyphomandra.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forbestra_equicola</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forbestra_equicola</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aeria eurimedia est présent en Équateur, au Pérou, au Brésil, au Surinam, en Guyana et en Guyane[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aeria eurimedia est présent en Équateur, au Pérou, au Brésil, au Surinam, en Guyana et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forbestra_equicola</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forbestra_equicola</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Forbestra equicola, sur Wikimedia CommonsForbestra equicola, sur Wikispecies
 </t>
